--- a/docs/DHR-REST_APIs.xlsx
+++ b/docs/DHR-REST_APIs.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26709"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gduplant/Workspace/marklogic/marklogic_madder/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="285" yWindow="330" windowWidth="22695" windowHeight="9270" activeTab="4"/>
+    <workbookView xWindow="69120" yWindow="460" windowWidth="25800" windowHeight="15080" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="1" r:id="rId1"/>
@@ -12,13 +17,19 @@
     <sheet name="merge" sheetId="3" r:id="rId3"/>
     <sheet name="case" sheetId="4" r:id="rId4"/>
     <sheet name="annotation" sheetId="5" r:id="rId5"/>
+    <sheet name="ABAWD" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="159">
   <si>
     <t>Method</t>
   </si>
@@ -486,6 +497,15 @@
   </si>
   <si>
     <t>Array of additional collection names</t>
+  </si>
+  <si>
+    <t>"/v1/resources/abawd</t>
+  </si>
+  <si>
+    <t>cert-period</t>
+  </si>
+  <si>
+    <t>The ABAWD certification period or month that the dermination is made</t>
   </si>
 </sst>
 </file>
@@ -598,12 +618,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -633,12 +653,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -844,36 +864,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B39" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,7 +907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -901,7 +921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -915,7 +935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -929,7 +949,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -943,7 +963,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -957,7 +977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -971,7 +991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -985,7 +1005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -999,7 +1019,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1010,7 +1030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1021,7 +1041,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1032,7 +1052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1043,7 +1063,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1054,7 +1074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1068,7 +1088,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1082,7 +1102,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1096,7 +1116,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1110,12 +1130,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>41</v>
       </c>
@@ -1123,7 +1143,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
@@ -1131,7 +1151,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>43</v>
       </c>
@@ -1139,7 +1159,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>44</v>
       </c>
@@ -1147,7 +1167,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>45</v>
       </c>
@@ -1155,7 +1175,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
@@ -1163,7 +1183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>47</v>
       </c>
@@ -1171,7 +1191,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>48</v>
       </c>
@@ -1179,12 +1199,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>73</v>
       </c>
@@ -1192,7 +1212,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>75</v>
       </c>
@@ -1200,7 +1220,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>76</v>
       </c>
@@ -1208,7 +1228,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>77</v>
       </c>
@@ -1216,7 +1236,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>78</v>
       </c>
@@ -1224,7 +1244,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>83</v>
       </c>
@@ -1232,7 +1252,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>84</v>
       </c>
@@ -1240,7 +1260,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>85</v>
       </c>
@@ -1261,32 +1281,32 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1314,7 +1334,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1328,7 +1348,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1342,7 +1362,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1356,7 +1376,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1370,7 +1390,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1384,7 +1404,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1398,7 +1418,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1412,7 +1432,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1426,12 +1446,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>75</v>
       </c>
@@ -1439,7 +1459,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>76</v>
       </c>
@@ -1447,7 +1467,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>83</v>
       </c>
@@ -1455,7 +1475,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>84</v>
       </c>
@@ -1463,7 +1483,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>85</v>
       </c>
@@ -1484,32 +1504,32 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1517,7 +1537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1545,7 +1565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1559,7 +1579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1573,12 +1593,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1586,7 +1606,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -1603,36 +1623,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C33" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1646,7 +1666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1660,7 +1680,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1674,7 +1694,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1688,7 +1708,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1702,7 +1722,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1716,7 +1736,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1730,7 +1750,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1744,7 +1764,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1758,7 +1778,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1772,7 +1792,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1786,12 +1806,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
@@ -1799,7 +1819,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>42</v>
       </c>
@@ -1807,7 +1827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>113</v>
       </c>
@@ -1815,7 +1835,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>114</v>
       </c>
@@ -1823,7 +1843,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>115</v>
       </c>
@@ -1831,7 +1851,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>116</v>
       </c>
@@ -1839,7 +1859,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>117</v>
       </c>
@@ -1847,7 +1867,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>118</v>
       </c>
@@ -1855,12 +1875,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>73</v>
       </c>
@@ -1868,7 +1888,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>75</v>
       </c>
@@ -1876,7 +1896,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>76</v>
       </c>
@@ -1884,7 +1904,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>77</v>
       </c>
@@ -1892,7 +1912,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>78</v>
       </c>
@@ -1900,7 +1920,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>83</v>
       </c>
@@ -1908,7 +1928,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>84</v>
       </c>
@@ -1916,7 +1936,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>85</v>
       </c>
@@ -1933,42 +1953,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +2002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>146</v>
       </c>
@@ -1996,7 +2016,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -2010,7 +2030,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2024,7 +2044,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -2038,7 +2058,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -2052,7 +2072,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -2066,7 +2086,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -2080,7 +2100,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -2094,7 +2114,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2108,12 +2128,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>75</v>
       </c>
@@ -2121,7 +2141,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>129</v>
       </c>
@@ -2129,7 +2149,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>76</v>
       </c>
@@ -2137,7 +2157,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
@@ -2145,7 +2165,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>133</v>
       </c>
@@ -2153,7 +2173,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>135</v>
       </c>
@@ -2161,12 +2181,206 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C26" t="s">
         <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
